--- a/Code/Results/Cases/Case_4_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.058082859094113</v>
+        <v>1.081497900768994</v>
       </c>
       <c r="D2">
-        <v>1.074446124626735</v>
+        <v>1.086543546774944</v>
       </c>
       <c r="E2">
-        <v>1.076096002182235</v>
+        <v>1.094684272638825</v>
       </c>
       <c r="F2">
-        <v>1.083482733302262</v>
+        <v>1.100593467886747</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.081092722333681</v>
+        <v>1.069232182326978</v>
       </c>
       <c r="J2">
-        <v>1.078655007681735</v>
+        <v>1.086372186377141</v>
       </c>
       <c r="K2">
-        <v>1.084957316349297</v>
+        <v>1.089201118891153</v>
       </c>
       <c r="L2">
-        <v>1.086588019436708</v>
+        <v>1.097320991355226</v>
       </c>
       <c r="M2">
-        <v>1.093889787246633</v>
+        <v>1.10321525773721</v>
       </c>
       <c r="N2">
-        <v>1.027741967157365</v>
+        <v>1.032057703193815</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.064111527795352</v>
+        <v>1.082723370382783</v>
       </c>
       <c r="D3">
-        <v>1.079404124445272</v>
+        <v>1.087562913519939</v>
       </c>
       <c r="E3">
-        <v>1.08166623863458</v>
+        <v>1.095860104372401</v>
       </c>
       <c r="F3">
-        <v>1.089001933471849</v>
+        <v>1.101756183151815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.083783906010378</v>
+        <v>1.069697596471883</v>
       </c>
       <c r="J3">
-        <v>1.082994932434903</v>
+        <v>1.087258106054709</v>
       </c>
       <c r="K3">
-        <v>1.089112654289898</v>
+        <v>1.090039401052493</v>
       </c>
       <c r="L3">
-        <v>1.091350869067287</v>
+        <v>1.098316874825576</v>
       </c>
       <c r="M3">
-        <v>1.098609895627914</v>
+        <v>1.104199136042878</v>
       </c>
       <c r="N3">
-        <v>1.029392122703271</v>
+        <v>1.032379641402154</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.067917463946061</v>
+        <v>1.083516028141429</v>
       </c>
       <c r="D4">
-        <v>1.082536399511469</v>
+        <v>1.08822223465871</v>
       </c>
       <c r="E4">
-        <v>1.085187334510008</v>
+        <v>1.096620950462821</v>
       </c>
       <c r="F4">
-        <v>1.092490982040789</v>
+        <v>1.102508551503431</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.085472492250008</v>
+        <v>1.069997363070816</v>
       </c>
       <c r="J4">
-        <v>1.085730107990324</v>
+        <v>1.087830471195232</v>
       </c>
       <c r="K4">
-        <v>1.091731175012265</v>
+        <v>1.090580933083967</v>
       </c>
       <c r="L4">
-        <v>1.094355856098637</v>
+        <v>1.098960695597579</v>
       </c>
       <c r="M4">
-        <v>1.10158796985596</v>
+        <v>1.104835194292435</v>
       </c>
       <c r="N4">
-        <v>1.030429516965071</v>
+        <v>1.032587109034625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.069495747608335</v>
+        <v>1.0838491909334</v>
       </c>
       <c r="D5">
-        <v>1.083835810981054</v>
+        <v>1.088499347971876</v>
       </c>
       <c r="E5">
-        <v>1.086648551156652</v>
+        <v>1.0969408126194</v>
       </c>
       <c r="F5">
-        <v>1.093938945748302</v>
+        <v>1.102824851800687</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.08617020639094</v>
+        <v>1.07012305355252</v>
       </c>
       <c r="J5">
-        <v>1.086863205435018</v>
+        <v>1.08807088311872</v>
       </c>
       <c r="K5">
-        <v>1.09281586231363</v>
+        <v>1.090808380592364</v>
       </c>
       <c r="L5">
-        <v>1.09560151404699</v>
+        <v>1.099231219744461</v>
       </c>
       <c r="M5">
-        <v>1.102822481236875</v>
+        <v>1.105102456354237</v>
       </c>
       <c r="N5">
-        <v>1.030858630138736</v>
+        <v>1.032674125760895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.069759502318622</v>
+        <v>1.083905126354892</v>
       </c>
       <c r="D6">
-        <v>1.084052989194947</v>
+        <v>1.088545872719489</v>
       </c>
       <c r="E6">
-        <v>1.086892802945895</v>
+        <v>1.096994519068599</v>
       </c>
       <c r="F6">
-        <v>1.094180984806715</v>
+        <v>1.102877960323347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.086286655279186</v>
+        <v>1.070144138126552</v>
       </c>
       <c r="J6">
-        <v>1.087052494064873</v>
+        <v>1.088111237038926</v>
       </c>
       <c r="K6">
-        <v>1.092997058720254</v>
+        <v>1.090846557598167</v>
       </c>
       <c r="L6">
-        <v>1.095809652655798</v>
+        <v>1.09927663387914</v>
       </c>
       <c r="M6">
-        <v>1.103028757823947</v>
+        <v>1.105147322843559</v>
       </c>
       <c r="N6">
-        <v>1.03093027653854</v>
+        <v>1.032688724377186</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.067938637145889</v>
+        <v>1.08352048015356</v>
       </c>
       <c r="D7">
-        <v>1.082553829686429</v>
+        <v>1.088225937715548</v>
       </c>
       <c r="E7">
-        <v>1.085206933107676</v>
+        <v>1.096625224465155</v>
       </c>
       <c r="F7">
-        <v>1.092510402706409</v>
+        <v>1.102512777903567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.085481862349738</v>
+        <v>1.069999043854382</v>
       </c>
       <c r="J7">
-        <v>1.085745313474307</v>
+        <v>1.087833684416166</v>
       </c>
       <c r="K7">
-        <v>1.091745731200868</v>
+        <v>1.090583973082497</v>
       </c>
       <c r="L7">
-        <v>1.094372568965073</v>
+        <v>1.098964310895461</v>
       </c>
       <c r="M7">
-        <v>1.101604533136249</v>
+        <v>1.104838765997235</v>
       </c>
       <c r="N7">
-        <v>1.030435277995034</v>
+        <v>1.032588272552303</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.060140581783404</v>
+        <v>1.081912117918906</v>
       </c>
       <c r="D8">
-        <v>1.076137894743532</v>
+        <v>1.086888104616937</v>
       </c>
       <c r="E8">
-        <v>1.077996262956551</v>
+        <v>1.095081650437757</v>
       </c>
       <c r="F8">
-        <v>1.085365535140862</v>
+        <v>1.100986410893614</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.082013443824815</v>
+        <v>1.069389758963919</v>
       </c>
       <c r="J8">
-        <v>1.080137276661552</v>
+        <v>1.086671770916189</v>
       </c>
       <c r="K8">
-        <v>1.086376604700296</v>
+        <v>1.089484605766429</v>
       </c>
       <c r="L8">
-        <v>1.088214047976202</v>
+        <v>1.097657676231529</v>
       </c>
       <c r="M8">
-        <v>1.09550121067716</v>
+        <v>1.103547884207909</v>
       </c>
       <c r="N8">
-        <v>1.028306095978905</v>
+        <v>1.032166679481454</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.045622453583724</v>
+        <v>1.079075566976078</v>
       </c>
       <c r="D9">
-        <v>1.064213764273617</v>
+        <v>1.084528498518432</v>
       </c>
       <c r="E9">
-        <v>1.064610589174266</v>
+        <v>1.092361644951289</v>
       </c>
       <c r="F9">
-        <v>1.072103980505619</v>
+        <v>1.09829680310272</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.07547453433969</v>
+        <v>1.068305460229577</v>
       </c>
       <c r="J9">
-        <v>1.069660999674855</v>
+        <v>1.084617501903155</v>
       </c>
       <c r="K9">
-        <v>1.076344362438633</v>
+        <v>1.087540493203887</v>
       </c>
       <c r="L9">
-        <v>1.076735694853118</v>
+        <v>1.095350698575415</v>
       </c>
       <c r="M9">
-        <v>1.084126330212657</v>
+        <v>1.10126871113912</v>
       </c>
       <c r="N9">
-        <v>1.024308916886276</v>
+        <v>1.031417269860147</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.035346185857352</v>
+        <v>1.077182783388337</v>
       </c>
       <c r="D10">
-        <v>1.055791823884772</v>
+        <v>1.082953895077291</v>
       </c>
       <c r="E10">
-        <v>1.055165678396309</v>
+        <v>1.090548195233752</v>
       </c>
       <c r="F10">
-        <v>1.062748365069695</v>
+        <v>1.096503675668195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0707933429835</v>
+        <v>1.067575377043979</v>
       </c>
       <c r="J10">
-        <v>1.062224361426271</v>
+        <v>1.083243315288564</v>
       </c>
       <c r="K10">
-        <v>1.069221861477447</v>
+        <v>1.086239714764203</v>
       </c>
       <c r="L10">
-        <v>1.068605551439736</v>
+        <v>1.093809588438083</v>
       </c>
       <c r="M10">
-        <v>1.076070125378723</v>
+        <v>1.099746172413674</v>
       </c>
       <c r="N10">
-        <v>1.021459856778018</v>
+        <v>1.030913265678515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.030735879013157</v>
+        <v>1.076362742944861</v>
       </c>
       <c r="D11">
-        <v>1.052018771227358</v>
+        <v>1.082271694166328</v>
       </c>
       <c r="E11">
-        <v>1.050936251475955</v>
+        <v>1.089762903493247</v>
       </c>
       <c r="F11">
-        <v>1.058559426538619</v>
+        <v>1.095727198474868</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.068681280303634</v>
+        <v>1.06725751964304</v>
       </c>
       <c r="J11">
-        <v>1.058883643209703</v>
+        <v>1.082647149710902</v>
       </c>
       <c r="K11">
-        <v>1.066022124584846</v>
+        <v>1.085675330850244</v>
       </c>
       <c r="L11">
-        <v>1.064957527453563</v>
+        <v>1.093141509732641</v>
       </c>
       <c r="M11">
-        <v>1.072455492120667</v>
+        <v>1.099086144537673</v>
       </c>
       <c r="N11">
-        <v>1.02017763501579</v>
+        <v>1.030693978060254</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.028997486236013</v>
+        <v>1.076058072788601</v>
       </c>
       <c r="D12">
-        <v>1.050596973939777</v>
+        <v>1.082018234659152</v>
       </c>
       <c r="E12">
-        <v>1.049342740683553</v>
+        <v>1.089471200825488</v>
       </c>
       <c r="F12">
-        <v>1.056981254643148</v>
+        <v>1.095438772259455</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.067883160085945</v>
+        <v>1.067139192798069</v>
       </c>
       <c r="J12">
-        <v>1.057623376078871</v>
+        <v>1.082425535215434</v>
       </c>
       <c r="K12">
-        <v>1.064815031908763</v>
+        <v>1.085465520976034</v>
       </c>
       <c r="L12">
-        <v>1.063581967715343</v>
+        <v>1.092893238394758</v>
       </c>
       <c r="M12">
-        <v>1.071092560776423</v>
+        <v>1.098840865107971</v>
       </c>
       <c r="N12">
-        <v>1.019693607014141</v>
+        <v>1.030612366557666</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.029371580940994</v>
+        <v>1.076123428809248</v>
       </c>
       <c r="D13">
-        <v>1.050902896661164</v>
+        <v>1.082072605310734</v>
       </c>
       <c r="E13">
-        <v>1.049685598973495</v>
+        <v>1.089533772537336</v>
       </c>
       <c r="F13">
-        <v>1.05732080868003</v>
+        <v>1.095500641053731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.068054989389582</v>
+        <v>1.067164586111043</v>
       </c>
       <c r="J13">
-        <v>1.057894605937274</v>
+        <v>1.082473080090677</v>
       </c>
       <c r="K13">
-        <v>1.065074818036572</v>
+        <v>1.085510533739829</v>
       </c>
       <c r="L13">
-        <v>1.063877981637931</v>
+        <v>1.092946498770213</v>
       </c>
       <c r="M13">
-        <v>1.071385855329494</v>
+        <v>1.098893483641141</v>
       </c>
       <c r="N13">
-        <v>1.019797791370581</v>
+        <v>1.030629879674144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.030592722638837</v>
+        <v>1.076337560270535</v>
       </c>
       <c r="D14">
-        <v>1.051901667710579</v>
+        <v>1.082250744351443</v>
       </c>
       <c r="E14">
-        <v>1.050804999960945</v>
+        <v>1.089738791482048</v>
       </c>
       <c r="F14">
-        <v>1.058429436668435</v>
+        <v>1.095703357247967</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.068615590044873</v>
+        <v>1.067247744028411</v>
       </c>
       <c r="J14">
-        <v>1.058779872084163</v>
+        <v>1.082628834507464</v>
       </c>
       <c r="K14">
-        <v>1.06592273201322</v>
+        <v>1.085657991429709</v>
       </c>
       <c r="L14">
-        <v>1.064844250135971</v>
+        <v>1.093120989946861</v>
       </c>
       <c r="M14">
-        <v>1.072343253950859</v>
+        <v>1.099065872033493</v>
       </c>
       <c r="N14">
-        <v>1.020137786087831</v>
+        <v>1.030687235260476</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.031341617285183</v>
+        <v>1.07646948429449</v>
       </c>
       <c r="D15">
-        <v>1.052514308914444</v>
+        <v>1.082360493735053</v>
       </c>
       <c r="E15">
-        <v>1.051491668621997</v>
+        <v>1.089865108991069</v>
       </c>
       <c r="F15">
-        <v>1.059109508263033</v>
+        <v>1.095828256269204</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.06895916567543</v>
+        <v>1.067298945821599</v>
       </c>
       <c r="J15">
-        <v>1.059322706700133</v>
+        <v>1.082724777093387</v>
       </c>
       <c r="K15">
-        <v>1.066442661741779</v>
+        <v>1.085748822067032</v>
       </c>
       <c r="L15">
-        <v>1.065436838282399</v>
+        <v>1.093228484140934</v>
       </c>
       <c r="M15">
-        <v>1.072930407569946</v>
+        <v>1.099172070830058</v>
       </c>
       <c r="N15">
-        <v>1.02034622616726</v>
+        <v>1.030722552936813</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.035648623964746</v>
+        <v>1.077237197011577</v>
       </c>
       <c r="D16">
-        <v>1.056039456269951</v>
+        <v>1.082999162215392</v>
       </c>
       <c r="E16">
-        <v>1.055443301151523</v>
+        <v>1.090600311114806</v>
       </c>
       <c r="F16">
-        <v>1.06302334129373</v>
+        <v>1.09655520687883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.070931652570876</v>
+        <v>1.067596435725921</v>
       </c>
       <c r="J16">
-        <v>1.062443428362359</v>
+        <v>1.083282856801114</v>
       </c>
       <c r="K16">
-        <v>1.069431681626684</v>
+        <v>1.086277146951813</v>
       </c>
       <c r="L16">
-        <v>1.068844857832599</v>
+        <v>1.093853910290267</v>
       </c>
       <c r="M16">
-        <v>1.076307246285309</v>
+        <v>1.099789960161002</v>
       </c>
       <c r="N16">
-        <v>1.02154389237516</v>
+        <v>1.030927796900892</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.038306084411517</v>
+        <v>1.077718639879817</v>
       </c>
       <c r="D17">
-        <v>1.058215965736382</v>
+        <v>1.083399677322884</v>
       </c>
       <c r="E17">
-        <v>1.057883618990973</v>
+        <v>1.09106146761622</v>
       </c>
       <c r="F17">
-        <v>1.065440453947488</v>
+        <v>1.097011191476476</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.072145606268571</v>
+        <v>1.067782580286827</v>
       </c>
       <c r="J17">
-        <v>1.064367835195108</v>
+        <v>1.083632620711793</v>
       </c>
       <c r="K17">
-        <v>1.071274845210721</v>
+        <v>1.086608245355415</v>
       </c>
       <c r="L17">
-        <v>1.070947539098146</v>
+        <v>1.094246016745376</v>
       </c>
       <c r="M17">
-        <v>1.07839074954973</v>
+        <v>1.100177341509216</v>
       </c>
       <c r="N17">
-        <v>1.022281845653652</v>
+        <v>1.03105625942404</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.039840768728246</v>
+        <v>1.077999413862455</v>
       </c>
       <c r="D18">
-        <v>1.059473398218858</v>
+        <v>1.083633253751978</v>
       </c>
       <c r="E18">
-        <v>1.059293644479444</v>
+        <v>1.091330447125512</v>
       </c>
       <c r="F18">
-        <v>1.066837118244387</v>
+        <v>1.097277155729022</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.072845535994564</v>
+        <v>1.067890988743562</v>
       </c>
       <c r="J18">
-        <v>1.065478763455005</v>
+        <v>1.083836522815143</v>
       </c>
       <c r="K18">
-        <v>1.072338859450053</v>
+        <v>1.086801259732008</v>
       </c>
       <c r="L18">
-        <v>1.07216178175966</v>
+        <v>1.094474651843537</v>
       </c>
       <c r="M18">
-        <v>1.07959393727264</v>
+        <v>1.100403221423226</v>
       </c>
       <c r="N18">
-        <v>1.022707629126508</v>
+        <v>1.031131088117986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.040361501391368</v>
+        <v>1.078095143235458</v>
       </c>
       <c r="D19">
-        <v>1.059900138495479</v>
+        <v>1.083712891004701</v>
       </c>
       <c r="E19">
-        <v>1.059772202751054</v>
+        <v>1.091422161350094</v>
       </c>
       <c r="F19">
-        <v>1.067311149468028</v>
+        <v>1.097367842067909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.073082835522289</v>
+        <v>1.067927925013442</v>
       </c>
       <c r="J19">
-        <v>1.065855639160205</v>
+        <v>1.083906029681178</v>
       </c>
       <c r="K19">
-        <v>1.07269981724169</v>
+        <v>1.086867054082386</v>
       </c>
       <c r="L19">
-        <v>1.072573774005332</v>
+        <v>1.094552598012092</v>
       </c>
       <c r="M19">
-        <v>1.08000218178848</v>
+        <v>1.100480228293953</v>
       </c>
       <c r="N19">
-        <v>1.022852034416621</v>
+        <v>1.031156585597611</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.038022565956849</v>
+        <v>1.077666990135624</v>
       </c>
       <c r="D20">
-        <v>1.057983706558288</v>
+        <v>1.083356709708025</v>
       </c>
       <c r="E20">
-        <v>1.05762318951012</v>
+        <v>1.091011990448717</v>
       </c>
       <c r="F20">
-        <v>1.065182495987796</v>
+        <v>1.096962269056906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.072016209116843</v>
+        <v>1.067762625968887</v>
       </c>
       <c r="J20">
-        <v>1.064162567477377</v>
+        <v>1.083595105669867</v>
       </c>
       <c r="K20">
-        <v>1.071078244683853</v>
+        <v>1.086572732991167</v>
       </c>
       <c r="L20">
-        <v>1.07072321416514</v>
+        <v>1.094203955097975</v>
       </c>
       <c r="M20">
-        <v>1.078168468526132</v>
+        <v>1.100135786728361</v>
       </c>
       <c r="N20">
-        <v>1.022203154622946</v>
+        <v>1.031042487095256</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.030233857594778</v>
+        <v>1.076274505862849</v>
       </c>
       <c r="D21">
-        <v>1.051608126820644</v>
+        <v>1.082198288504712</v>
       </c>
       <c r="E21">
-        <v>1.050475998705039</v>
+        <v>1.08967841881403</v>
       </c>
       <c r="F21">
-        <v>1.058103599297457</v>
+        <v>1.095643662617223</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.068450889736528</v>
+        <v>1.067223263292691</v>
       </c>
       <c r="J21">
-        <v>1.058519728824639</v>
+        <v>1.082582973477276</v>
       </c>
       <c r="K21">
-        <v>1.065673565203361</v>
+        <v>1.085614573591254</v>
       </c>
       <c r="L21">
-        <v>1.06456028610705</v>
+        <v>1.093069609893093</v>
       </c>
       <c r="M21">
-        <v>1.072061895489164</v>
+        <v>1.09901511115605</v>
       </c>
       <c r="N21">
-        <v>1.020037884056977</v>
+        <v>1.030670349844157</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.025185807231541</v>
+        <v>1.075398585830993</v>
       </c>
       <c r="D22">
-        <v>1.047481234216887</v>
+        <v>1.08146959686682</v>
       </c>
       <c r="E22">
-        <v>1.045851157208379</v>
+        <v>1.08883988855651</v>
       </c>
       <c r="F22">
-        <v>1.053523445929929</v>
+        <v>1.094814555144495</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.066130043417386</v>
+        <v>1.066882637142659</v>
       </c>
       <c r="J22">
-        <v>1.054859037625395</v>
+        <v>1.081945609477615</v>
       </c>
       <c r="K22">
-        <v>1.062167323233916</v>
+        <v>1.085011141603768</v>
       </c>
       <c r="L22">
-        <v>1.060565914205211</v>
+        <v>1.092355723292922</v>
       </c>
       <c r="M22">
-        <v>1.068104272373605</v>
+        <v>1.098309827748804</v>
       </c>
       <c r="N22">
-        <v>1.018631372026126</v>
+        <v>1.030435456163999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.027876829698963</v>
+        <v>1.075862967341553</v>
       </c>
       <c r="D23">
-        <v>1.049680675496499</v>
+        <v>1.081855923426293</v>
       </c>
       <c r="E23">
-        <v>1.048315849189676</v>
+        <v>1.089284415724281</v>
       </c>
       <c r="F23">
-        <v>1.055964272737239</v>
+        <v>1.095254085794607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.067368170594909</v>
+        <v>1.067063352749648</v>
       </c>
       <c r="J23">
-        <v>1.056810784643478</v>
+        <v>1.082283583210899</v>
       </c>
       <c r="K23">
-        <v>1.064036724729962</v>
+        <v>1.085331127542619</v>
       </c>
       <c r="L23">
-        <v>1.062695217835108</v>
+        <v>1.092734233026425</v>
       </c>
       <c r="M23">
-        <v>1.070213963123441</v>
+        <v>1.098683775930756</v>
       </c>
       <c r="N23">
-        <v>1.019381432226163</v>
+        <v>1.030560064760422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.03815072310022</v>
+        <v>1.077690328566203</v>
       </c>
       <c r="D24">
-        <v>1.05808869174191</v>
+        <v>1.083376125038869</v>
       </c>
       <c r="E24">
-        <v>1.057740907589351</v>
+        <v>1.091034347067374</v>
       </c>
       <c r="F24">
-        <v>1.065299096757212</v>
+        <v>1.096984375004449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.072074703241485</v>
+        <v>1.067771642980774</v>
       </c>
       <c r="J24">
-        <v>1.064255354710175</v>
+        <v>1.083612057440163</v>
       </c>
       <c r="K24">
-        <v>1.071167114126675</v>
+        <v>1.086588779839031</v>
       </c>
       <c r="L24">
-        <v>1.07082461459716</v>
+        <v>1.094222961174507</v>
       </c>
       <c r="M24">
-        <v>1.078268944999238</v>
+        <v>1.100154563770972</v>
       </c>
       <c r="N24">
-        <v>1.022238726055338</v>
+        <v>1.031048710530929</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.049475148748104</v>
+        <v>1.079809182347173</v>
       </c>
       <c r="D25">
-        <v>1.067375271443981</v>
+        <v>1.085138778148838</v>
       </c>
       <c r="E25">
-        <v>1.068157916809821</v>
+        <v>1.093064844683461</v>
       </c>
       <c r="F25">
-        <v>1.075618149764075</v>
+        <v>1.098992134634917</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.077219010631103</v>
+        <v>1.068587045918227</v>
       </c>
       <c r="J25">
-        <v>1.07244495885479</v>
+        <v>1.085149397442902</v>
       </c>
       <c r="K25">
-        <v>1.079010541622285</v>
+        <v>1.088043916546356</v>
       </c>
       <c r="L25">
-        <v>1.079782895405924</v>
+        <v>1.095947652113215</v>
       </c>
       <c r="M25">
-        <v>1.087145968896286</v>
+        <v>1.101858470650579</v>
       </c>
       <c r="N25">
-        <v>1.025373244112557</v>
+        <v>1.031611783761389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.081497900768994</v>
+        <v>1.058082859094111</v>
       </c>
       <c r="D2">
-        <v>1.086543546774944</v>
+        <v>1.074446124626733</v>
       </c>
       <c r="E2">
-        <v>1.094684272638825</v>
+        <v>1.076096002182233</v>
       </c>
       <c r="F2">
-        <v>1.100593467886747</v>
+        <v>1.08348273330226</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069232182326978</v>
+        <v>1.08109272233368</v>
       </c>
       <c r="J2">
-        <v>1.086372186377141</v>
+        <v>1.078655007681734</v>
       </c>
       <c r="K2">
-        <v>1.089201118891153</v>
+        <v>1.084957316349296</v>
       </c>
       <c r="L2">
-        <v>1.097320991355226</v>
+        <v>1.086588019436706</v>
       </c>
       <c r="M2">
-        <v>1.10321525773721</v>
+        <v>1.093889787246631</v>
       </c>
       <c r="N2">
-        <v>1.032057703193815</v>
+        <v>1.027741967157365</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.082723370382783</v>
+        <v>1.064111527795352</v>
       </c>
       <c r="D3">
-        <v>1.087562913519939</v>
+        <v>1.079404124445272</v>
       </c>
       <c r="E3">
-        <v>1.095860104372401</v>
+        <v>1.08166623863458</v>
       </c>
       <c r="F3">
-        <v>1.101756183151815</v>
+        <v>1.089001933471849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069697596471883</v>
+        <v>1.083783906010379</v>
       </c>
       <c r="J3">
-        <v>1.087258106054709</v>
+        <v>1.082994932434904</v>
       </c>
       <c r="K3">
-        <v>1.090039401052493</v>
+        <v>1.089112654289899</v>
       </c>
       <c r="L3">
-        <v>1.098316874825576</v>
+        <v>1.091350869067287</v>
       </c>
       <c r="M3">
-        <v>1.104199136042878</v>
+        <v>1.098609895627914</v>
       </c>
       <c r="N3">
-        <v>1.032379641402154</v>
+        <v>1.029392122703271</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.083516028141429</v>
+        <v>1.067917463946059</v>
       </c>
       <c r="D4">
-        <v>1.08822223465871</v>
+        <v>1.082536399511467</v>
       </c>
       <c r="E4">
-        <v>1.096620950462821</v>
+        <v>1.085187334510006</v>
       </c>
       <c r="F4">
-        <v>1.102508551503431</v>
+        <v>1.092490982040787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069997363070816</v>
+        <v>1.085472492250007</v>
       </c>
       <c r="J4">
-        <v>1.087830471195232</v>
+        <v>1.085730107990322</v>
       </c>
       <c r="K4">
-        <v>1.090580933083967</v>
+        <v>1.091731175012263</v>
       </c>
       <c r="L4">
-        <v>1.098960695597579</v>
+        <v>1.094355856098635</v>
       </c>
       <c r="M4">
-        <v>1.104835194292435</v>
+        <v>1.101587969855959</v>
       </c>
       <c r="N4">
-        <v>1.032587109034625</v>
+        <v>1.030429516965071</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0838491909334</v>
+        <v>1.069495747608334</v>
       </c>
       <c r="D5">
-        <v>1.088499347971876</v>
+        <v>1.083835810981054</v>
       </c>
       <c r="E5">
-        <v>1.0969408126194</v>
+        <v>1.086648551156651</v>
       </c>
       <c r="F5">
-        <v>1.102824851800687</v>
+        <v>1.093938945748301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07012305355252</v>
+        <v>1.086170206390939</v>
       </c>
       <c r="J5">
-        <v>1.08807088311872</v>
+        <v>1.086863205435017</v>
       </c>
       <c r="K5">
-        <v>1.090808380592364</v>
+        <v>1.092815862313629</v>
       </c>
       <c r="L5">
-        <v>1.099231219744461</v>
+        <v>1.095601514046989</v>
       </c>
       <c r="M5">
-        <v>1.105102456354237</v>
+        <v>1.102822481236874</v>
       </c>
       <c r="N5">
-        <v>1.032674125760895</v>
+        <v>1.030858630138736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.083905126354892</v>
+        <v>1.069759502318621</v>
       </c>
       <c r="D6">
-        <v>1.088545872719489</v>
+        <v>1.084052989194946</v>
       </c>
       <c r="E6">
-        <v>1.096994519068599</v>
+        <v>1.086892802945893</v>
       </c>
       <c r="F6">
-        <v>1.102877960323347</v>
+        <v>1.094180984806713</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070144138126552</v>
+        <v>1.086286655279185</v>
       </c>
       <c r="J6">
-        <v>1.088111237038926</v>
+        <v>1.087052494064872</v>
       </c>
       <c r="K6">
-        <v>1.090846557598167</v>
+        <v>1.092997058720252</v>
       </c>
       <c r="L6">
-        <v>1.09927663387914</v>
+        <v>1.095809652655797</v>
       </c>
       <c r="M6">
-        <v>1.105147322843559</v>
+        <v>1.103028757823946</v>
       </c>
       <c r="N6">
-        <v>1.032688724377186</v>
+        <v>1.03093027653854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.08352048015356</v>
+        <v>1.067938637145891</v>
       </c>
       <c r="D7">
-        <v>1.088225937715548</v>
+        <v>1.08255382968643</v>
       </c>
       <c r="E7">
-        <v>1.096625224465155</v>
+        <v>1.085206933107678</v>
       </c>
       <c r="F7">
-        <v>1.102512777903567</v>
+        <v>1.092510402706411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069999043854382</v>
+        <v>1.085481862349738</v>
       </c>
       <c r="J7">
-        <v>1.087833684416166</v>
+        <v>1.085745313474308</v>
       </c>
       <c r="K7">
-        <v>1.090583973082497</v>
+        <v>1.09174573120087</v>
       </c>
       <c r="L7">
-        <v>1.098964310895461</v>
+        <v>1.094372568965074</v>
       </c>
       <c r="M7">
-        <v>1.104838765997235</v>
+        <v>1.10160453313625</v>
       </c>
       <c r="N7">
-        <v>1.032588272552303</v>
+        <v>1.030435277995035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.081912117918906</v>
+        <v>1.060140581783402</v>
       </c>
       <c r="D8">
-        <v>1.086888104616937</v>
+        <v>1.076137894743532</v>
       </c>
       <c r="E8">
-        <v>1.095081650437757</v>
+        <v>1.07799626295655</v>
       </c>
       <c r="F8">
-        <v>1.100986410893614</v>
+        <v>1.08536553514086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069389758963919</v>
+        <v>1.082013443824815</v>
       </c>
       <c r="J8">
-        <v>1.086671770916189</v>
+        <v>1.080137276661551</v>
       </c>
       <c r="K8">
-        <v>1.089484605766429</v>
+        <v>1.086376604700295</v>
       </c>
       <c r="L8">
-        <v>1.097657676231529</v>
+        <v>1.088214047976201</v>
       </c>
       <c r="M8">
-        <v>1.103547884207909</v>
+        <v>1.095501210677159</v>
       </c>
       <c r="N8">
-        <v>1.032166679481454</v>
+        <v>1.028306095978905</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.079075566976078</v>
+        <v>1.045622453583725</v>
       </c>
       <c r="D9">
-        <v>1.084528498518432</v>
+        <v>1.064213764273617</v>
       </c>
       <c r="E9">
-        <v>1.092361644951289</v>
+        <v>1.064610589174267</v>
       </c>
       <c r="F9">
-        <v>1.09829680310272</v>
+        <v>1.07210398050562</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.068305460229577</v>
+        <v>1.075474534339691</v>
       </c>
       <c r="J9">
-        <v>1.084617501903155</v>
+        <v>1.069660999674856</v>
       </c>
       <c r="K9">
-        <v>1.087540493203887</v>
+        <v>1.076344362438634</v>
       </c>
       <c r="L9">
-        <v>1.095350698575415</v>
+        <v>1.076735694853119</v>
       </c>
       <c r="M9">
-        <v>1.10126871113912</v>
+        <v>1.084126330212657</v>
       </c>
       <c r="N9">
-        <v>1.031417269860147</v>
+        <v>1.024308916886276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.077182783388337</v>
+        <v>1.035346185857348</v>
       </c>
       <c r="D10">
-        <v>1.082953895077291</v>
+        <v>1.055791823884768</v>
       </c>
       <c r="E10">
-        <v>1.090548195233752</v>
+        <v>1.055165678396305</v>
       </c>
       <c r="F10">
-        <v>1.096503675668195</v>
+        <v>1.062748365069691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.067575377043979</v>
+        <v>1.070793342983498</v>
       </c>
       <c r="J10">
-        <v>1.083243315288564</v>
+        <v>1.062224361426267</v>
       </c>
       <c r="K10">
-        <v>1.086239714764203</v>
+        <v>1.069221861477444</v>
       </c>
       <c r="L10">
-        <v>1.093809588438083</v>
+        <v>1.068605551439732</v>
       </c>
       <c r="M10">
-        <v>1.099746172413674</v>
+        <v>1.076070125378719</v>
       </c>
       <c r="N10">
-        <v>1.030913265678515</v>
+        <v>1.021459856778016</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.076362742944861</v>
+        <v>1.030735879013159</v>
       </c>
       <c r="D11">
-        <v>1.082271694166328</v>
+        <v>1.05201877122736</v>
       </c>
       <c r="E11">
-        <v>1.089762903493247</v>
+        <v>1.050936251475957</v>
       </c>
       <c r="F11">
-        <v>1.095727198474868</v>
+        <v>1.058559426538621</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06725751964304</v>
+        <v>1.068681280303636</v>
       </c>
       <c r="J11">
-        <v>1.082647149710902</v>
+        <v>1.058883643209705</v>
       </c>
       <c r="K11">
-        <v>1.085675330850244</v>
+        <v>1.066022124584848</v>
       </c>
       <c r="L11">
-        <v>1.093141509732641</v>
+        <v>1.064957527453566</v>
       </c>
       <c r="M11">
-        <v>1.099086144537673</v>
+        <v>1.072455492120669</v>
       </c>
       <c r="N11">
-        <v>1.030693978060254</v>
+        <v>1.02017763501579</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.076058072788601</v>
+        <v>1.028997486236011</v>
       </c>
       <c r="D12">
-        <v>1.082018234659152</v>
+        <v>1.050596973939775</v>
       </c>
       <c r="E12">
-        <v>1.089471200825488</v>
+        <v>1.049342740683551</v>
       </c>
       <c r="F12">
-        <v>1.095438772259455</v>
+        <v>1.056981254643146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.067139192798069</v>
+        <v>1.067883160085943</v>
       </c>
       <c r="J12">
-        <v>1.082425535215434</v>
+        <v>1.057623376078869</v>
       </c>
       <c r="K12">
-        <v>1.085465520976034</v>
+        <v>1.064815031908761</v>
       </c>
       <c r="L12">
-        <v>1.092893238394758</v>
+        <v>1.06358196771534</v>
       </c>
       <c r="M12">
-        <v>1.098840865107971</v>
+        <v>1.071092560776421</v>
       </c>
       <c r="N12">
-        <v>1.030612366557666</v>
+        <v>1.01969360701414</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.076123428809248</v>
+        <v>1.029371580940994</v>
       </c>
       <c r="D13">
-        <v>1.082072605310734</v>
+        <v>1.050902896661165</v>
       </c>
       <c r="E13">
-        <v>1.089533772537336</v>
+        <v>1.049685598973495</v>
       </c>
       <c r="F13">
-        <v>1.095500641053731</v>
+        <v>1.05732080868003</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.067164586111043</v>
+        <v>1.068054989389582</v>
       </c>
       <c r="J13">
-        <v>1.082473080090677</v>
+        <v>1.057894605937274</v>
       </c>
       <c r="K13">
-        <v>1.085510533739829</v>
+        <v>1.065074818036572</v>
       </c>
       <c r="L13">
-        <v>1.092946498770213</v>
+        <v>1.063877981637931</v>
       </c>
       <c r="M13">
-        <v>1.098893483641141</v>
+        <v>1.071385855329494</v>
       </c>
       <c r="N13">
-        <v>1.030629879674144</v>
+        <v>1.019797791370582</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.076337560270535</v>
+        <v>1.030592722638838</v>
       </c>
       <c r="D14">
-        <v>1.082250744351443</v>
+        <v>1.051901667710579</v>
       </c>
       <c r="E14">
-        <v>1.089738791482048</v>
+        <v>1.050804999960945</v>
       </c>
       <c r="F14">
-        <v>1.095703357247967</v>
+        <v>1.058429436668436</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067247744028411</v>
+        <v>1.068615590044873</v>
       </c>
       <c r="J14">
-        <v>1.082628834507464</v>
+        <v>1.058779872084163</v>
       </c>
       <c r="K14">
-        <v>1.085657991429709</v>
+        <v>1.065922732013221</v>
       </c>
       <c r="L14">
-        <v>1.093120989946861</v>
+        <v>1.064844250135972</v>
       </c>
       <c r="M14">
-        <v>1.099065872033493</v>
+        <v>1.072343253950859</v>
       </c>
       <c r="N14">
-        <v>1.030687235260476</v>
+        <v>1.020137786087831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.07646948429449</v>
+        <v>1.031341617285182</v>
       </c>
       <c r="D15">
-        <v>1.082360493735053</v>
+        <v>1.052514308914443</v>
       </c>
       <c r="E15">
-        <v>1.089865108991069</v>
+        <v>1.051491668621997</v>
       </c>
       <c r="F15">
-        <v>1.095828256269204</v>
+        <v>1.059109508263032</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067298945821599</v>
+        <v>1.068959165675429</v>
       </c>
       <c r="J15">
-        <v>1.082724777093387</v>
+        <v>1.059322706700132</v>
       </c>
       <c r="K15">
-        <v>1.085748822067032</v>
+        <v>1.066442661741778</v>
       </c>
       <c r="L15">
-        <v>1.093228484140934</v>
+        <v>1.065436838282398</v>
       </c>
       <c r="M15">
-        <v>1.099172070830058</v>
+        <v>1.072930407569945</v>
       </c>
       <c r="N15">
-        <v>1.030722552936813</v>
+        <v>1.02034622616726</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.077237197011577</v>
+        <v>1.035648623964745</v>
       </c>
       <c r="D16">
-        <v>1.082999162215392</v>
+        <v>1.05603945626995</v>
       </c>
       <c r="E16">
-        <v>1.090600311114806</v>
+        <v>1.055443301151522</v>
       </c>
       <c r="F16">
-        <v>1.09655520687883</v>
+        <v>1.06302334129373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.067596435725921</v>
+        <v>1.070931652570876</v>
       </c>
       <c r="J16">
-        <v>1.083282856801114</v>
+        <v>1.062443428362358</v>
       </c>
       <c r="K16">
-        <v>1.086277146951813</v>
+        <v>1.069431681626684</v>
       </c>
       <c r="L16">
-        <v>1.093853910290267</v>
+        <v>1.068844857832598</v>
       </c>
       <c r="M16">
-        <v>1.099789960161002</v>
+        <v>1.076307246285308</v>
       </c>
       <c r="N16">
-        <v>1.030927796900892</v>
+        <v>1.021543892375159</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.077718639879817</v>
+        <v>1.038306084411516</v>
       </c>
       <c r="D17">
-        <v>1.083399677322884</v>
+        <v>1.058215965736381</v>
       </c>
       <c r="E17">
-        <v>1.09106146761622</v>
+        <v>1.057883618990973</v>
       </c>
       <c r="F17">
-        <v>1.097011191476476</v>
+        <v>1.065440453947487</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.067782580286827</v>
+        <v>1.07214560626857</v>
       </c>
       <c r="J17">
-        <v>1.083632620711793</v>
+        <v>1.064367835195108</v>
       </c>
       <c r="K17">
-        <v>1.086608245355415</v>
+        <v>1.07127484521072</v>
       </c>
       <c r="L17">
-        <v>1.094246016745376</v>
+        <v>1.070947539098145</v>
       </c>
       <c r="M17">
-        <v>1.100177341509216</v>
+        <v>1.078390749549728</v>
       </c>
       <c r="N17">
-        <v>1.03105625942404</v>
+        <v>1.022281845653651</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.077999413862455</v>
+        <v>1.039840768728248</v>
       </c>
       <c r="D18">
-        <v>1.083633253751978</v>
+        <v>1.059473398218859</v>
       </c>
       <c r="E18">
-        <v>1.091330447125512</v>
+        <v>1.059293644479445</v>
       </c>
       <c r="F18">
-        <v>1.097277155729022</v>
+        <v>1.066837118244388</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.067890988743562</v>
+        <v>1.072845535994565</v>
       </c>
       <c r="J18">
-        <v>1.083836522815143</v>
+        <v>1.065478763455006</v>
       </c>
       <c r="K18">
-        <v>1.086801259732008</v>
+        <v>1.072338859450054</v>
       </c>
       <c r="L18">
-        <v>1.094474651843537</v>
+        <v>1.07216178175966</v>
       </c>
       <c r="M18">
-        <v>1.100403221423226</v>
+        <v>1.079593937272641</v>
       </c>
       <c r="N18">
-        <v>1.031131088117986</v>
+        <v>1.022707629126509</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.078095143235458</v>
+        <v>1.04036150139137</v>
       </c>
       <c r="D19">
-        <v>1.083712891004701</v>
+        <v>1.05990013849548</v>
       </c>
       <c r="E19">
-        <v>1.091422161350094</v>
+        <v>1.059772202751056</v>
       </c>
       <c r="F19">
-        <v>1.097367842067909</v>
+        <v>1.06731114946803</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.067927925013442</v>
+        <v>1.073082835522289</v>
       </c>
       <c r="J19">
-        <v>1.083906029681178</v>
+        <v>1.065855639160207</v>
       </c>
       <c r="K19">
-        <v>1.086867054082386</v>
+        <v>1.072699817241691</v>
       </c>
       <c r="L19">
-        <v>1.094552598012092</v>
+        <v>1.072573774005334</v>
       </c>
       <c r="M19">
-        <v>1.100480228293953</v>
+        <v>1.080002181788482</v>
       </c>
       <c r="N19">
-        <v>1.031156585597611</v>
+        <v>1.022852034416622</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.077666990135624</v>
+        <v>1.038022565956848</v>
       </c>
       <c r="D20">
-        <v>1.083356709708025</v>
+        <v>1.057983706558288</v>
       </c>
       <c r="E20">
-        <v>1.091011990448717</v>
+        <v>1.057623189510119</v>
       </c>
       <c r="F20">
-        <v>1.096962269056906</v>
+        <v>1.065182495987795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.067762625968887</v>
+        <v>1.072016209116843</v>
       </c>
       <c r="J20">
-        <v>1.083595105669867</v>
+        <v>1.064162567477377</v>
       </c>
       <c r="K20">
-        <v>1.086572732991167</v>
+        <v>1.071078244683853</v>
       </c>
       <c r="L20">
-        <v>1.094203955097975</v>
+        <v>1.070723214165139</v>
       </c>
       <c r="M20">
-        <v>1.100135786728361</v>
+        <v>1.078168468526132</v>
       </c>
       <c r="N20">
-        <v>1.031042487095256</v>
+        <v>1.022203154622946</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.076274505862849</v>
+        <v>1.030233857594777</v>
       </c>
       <c r="D21">
-        <v>1.082198288504712</v>
+        <v>1.051608126820643</v>
       </c>
       <c r="E21">
-        <v>1.08967841881403</v>
+        <v>1.050475998705039</v>
       </c>
       <c r="F21">
-        <v>1.095643662617223</v>
+        <v>1.058103599297456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.067223263292691</v>
+        <v>1.068450889736528</v>
       </c>
       <c r="J21">
-        <v>1.082582973477276</v>
+        <v>1.058519728824638</v>
       </c>
       <c r="K21">
-        <v>1.085614573591254</v>
+        <v>1.06567356520336</v>
       </c>
       <c r="L21">
-        <v>1.093069609893093</v>
+        <v>1.064560286107049</v>
       </c>
       <c r="M21">
-        <v>1.09901511115605</v>
+        <v>1.072061895489163</v>
       </c>
       <c r="N21">
-        <v>1.030670349844157</v>
+        <v>1.020037884056977</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.075398585830993</v>
+        <v>1.02518580723154</v>
       </c>
       <c r="D22">
-        <v>1.08146959686682</v>
+        <v>1.047481234216887</v>
       </c>
       <c r="E22">
-        <v>1.08883988855651</v>
+        <v>1.045851157208378</v>
       </c>
       <c r="F22">
-        <v>1.094814555144495</v>
+        <v>1.053523445929928</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.066882637142659</v>
+        <v>1.066130043417386</v>
       </c>
       <c r="J22">
-        <v>1.081945609477615</v>
+        <v>1.054859037625395</v>
       </c>
       <c r="K22">
-        <v>1.085011141603768</v>
+        <v>1.062167323233916</v>
       </c>
       <c r="L22">
-        <v>1.092355723292922</v>
+        <v>1.06056591420521</v>
       </c>
       <c r="M22">
-        <v>1.098309827748804</v>
+        <v>1.068104272373604</v>
       </c>
       <c r="N22">
-        <v>1.030435456163999</v>
+        <v>1.018631372026126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.075862967341553</v>
+        <v>1.027876829698963</v>
       </c>
       <c r="D23">
-        <v>1.081855923426293</v>
+        <v>1.049680675496498</v>
       </c>
       <c r="E23">
-        <v>1.089284415724281</v>
+        <v>1.048315849189676</v>
       </c>
       <c r="F23">
-        <v>1.095254085794607</v>
+        <v>1.055964272737239</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.067063352749648</v>
+        <v>1.067368170594909</v>
       </c>
       <c r="J23">
-        <v>1.082283583210899</v>
+        <v>1.056810784643478</v>
       </c>
       <c r="K23">
-        <v>1.085331127542619</v>
+        <v>1.064036724729962</v>
       </c>
       <c r="L23">
-        <v>1.092734233026425</v>
+        <v>1.062695217835108</v>
       </c>
       <c r="M23">
-        <v>1.098683775930756</v>
+        <v>1.070213963123441</v>
       </c>
       <c r="N23">
-        <v>1.030560064760422</v>
+        <v>1.019381432226163</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.077690328566203</v>
+        <v>1.038150723100219</v>
       </c>
       <c r="D24">
-        <v>1.083376125038869</v>
+        <v>1.058088691741909</v>
       </c>
       <c r="E24">
-        <v>1.091034347067374</v>
+        <v>1.05774090758935</v>
       </c>
       <c r="F24">
-        <v>1.096984375004449</v>
+        <v>1.065299096757211</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.067771642980774</v>
+        <v>1.072074703241485</v>
       </c>
       <c r="J24">
-        <v>1.083612057440163</v>
+        <v>1.064255354710173</v>
       </c>
       <c r="K24">
-        <v>1.086588779839031</v>
+        <v>1.071167114126674</v>
       </c>
       <c r="L24">
-        <v>1.094222961174507</v>
+        <v>1.070824614597159</v>
       </c>
       <c r="M24">
-        <v>1.100154563770972</v>
+        <v>1.078268944999238</v>
       </c>
       <c r="N24">
-        <v>1.031048710530929</v>
+        <v>1.022238726055338</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079809182347173</v>
+        <v>1.049475148748104</v>
       </c>
       <c r="D25">
-        <v>1.085138778148838</v>
+        <v>1.06737527144398</v>
       </c>
       <c r="E25">
-        <v>1.093064844683461</v>
+        <v>1.06815791680982</v>
       </c>
       <c r="F25">
-        <v>1.098992134634917</v>
+        <v>1.075618149764075</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068587045918227</v>
+        <v>1.077219010631103</v>
       </c>
       <c r="J25">
-        <v>1.085149397442902</v>
+        <v>1.072444958854789</v>
       </c>
       <c r="K25">
-        <v>1.088043916546356</v>
+        <v>1.079010541622285</v>
       </c>
       <c r="L25">
-        <v>1.095947652113215</v>
+        <v>1.079782895405924</v>
       </c>
       <c r="M25">
-        <v>1.101858470650579</v>
+        <v>1.087145968896285</v>
       </c>
       <c r="N25">
-        <v>1.031611783761389</v>
+        <v>1.025373244112557</v>
       </c>
     </row>
   </sheetData>
